--- a/data_excel/592.xlsx
+++ b/data_excel/592.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>小明</t>
   </si>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +492,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -621,7 +625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -632,15 +636,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">

--- a/data_excel/592.xlsx
+++ b/data_excel/592.xlsx
@@ -108,9 +108,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -119,6 +116,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +493,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -574,7 +575,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -640,16 +641,16 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
